--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>战斗ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -514,7 +522,8 @@
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -575,6 +584,12 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -582,6 +597,12 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,14 +84,6 @@
   </si>
   <si>
     <t>战斗ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +505,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -522,8 +514,7 @@
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -584,12 +575,6 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -597,12 +582,6 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>战斗ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +513,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -514,7 +522,8 @@
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -575,6 +584,12 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -582,6 +597,12 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -92,6 +84,32 @@
   </si>
   <si>
     <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>战斗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,16 +505,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +531,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -537,10 +555,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -548,16 +566,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -571,38 +589,38 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="BattleGroupConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +80,125 @@
   </si>
   <si>
     <t>1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗1</t>
+  </si>
+  <si>
+    <t>3|4</t>
+  </si>
+  <si>
+    <t>5|6</t>
+  </si>
+  <si>
+    <t>11|12|13</t>
+  </si>
+  <si>
+    <t>守卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23|24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|8</t>
+  </si>
+  <si>
+    <t>9|10</t>
+  </si>
+  <si>
+    <t>14|15|16</t>
+  </si>
+  <si>
+    <t>17|18|19</t>
+  </si>
+  <si>
+    <t>20|21|22</t>
+  </si>
+  <si>
+    <t>暗岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleDiscribtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从洞里钻出一只猪妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫不断的拥挤过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守卫开始变得越来越暴躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏在暗处的猪妖突然冲了出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一队猪妖守护着八戒的元神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪妖统领出现了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意环境，随时战斗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的守卫变多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪妖统领疯狂的冲击过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一岗，宝物就在前面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27|28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29|30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31|32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33|34|35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36|37|38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39|40|41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打到卫兵，拿到武器！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,7 +210,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>战斗</t>
+      <t>那个守卫卖萌</t>
     </r>
     <r>
       <rPr>
@@ -108,8 +219,28 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>2</t>
+      <t>….</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打不过就跑，没什么大不了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打猪妖打到手软，怎么办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑死胆大的，赶走这些猪妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿，这猪不怕人啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水刚好，就差肉！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +333,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -244,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,16 +625,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,26 +656,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -555,13 +687,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -572,13 +707,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -589,44 +727,308 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="8655" yWindow="810" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,168 +79,353 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>battleDiscribtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗2</t>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗3</t>
+  </si>
+  <si>
+    <t>云栈洞-固定战斗4</t>
+  </si>
+  <si>
+    <t>云栈洞-随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗2</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗3</t>
+  </si>
+  <si>
+    <t>黄风岭-固定战斗4</t>
+  </si>
+  <si>
+    <t>黄风岭-随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗2</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗3</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗4</t>
+  </si>
+  <si>
+    <t>白骨洞-固定战斗5</t>
+  </si>
+  <si>
+    <t>白骨洞-随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞-固定战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞-固定战斗2</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗3</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗4</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗5</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗6</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗7</t>
+  </si>
+  <si>
+    <t>波月洞-固定战斗8</t>
+  </si>
+  <si>
+    <t>波月洞-随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗2</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗3</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗4</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗5</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗6</t>
+  </si>
+  <si>
+    <t>莲花洞-固定战斗7</t>
+  </si>
+  <si>
+    <t>莲花洞-随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞-固定战斗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞-固定战斗2</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗3</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗4</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗5</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗6</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗7</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗8</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗9</t>
+  </si>
+  <si>
+    <t>火云洞-固定战斗10</t>
+  </si>
+  <si>
+    <t>火云洞-随机战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞jjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭jjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞jjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞jjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞jjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞jjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5|6</t>
-  </si>
-  <si>
-    <t>11|12|13</t>
-  </si>
-  <si>
-    <t>守卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23|24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>7|8</t>
-  </si>
-  <si>
-    <t>9|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|10|11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14|15|16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17|18|19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20|21|22</t>
-  </si>
-  <si>
-    <t>暗岗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleDiscribtion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从洞里钻出一只猪妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫不断的拥挤过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>守卫开始变得越来越暴躁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏在暗处的猪妖突然冲了出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一队猪妖守护着八戒的元神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪妖统领出现了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意环境，随时战斗！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里的守卫变多了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪妖统领疯狂的冲击过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一岗，宝物就在前面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25|26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27|28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29|30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31|32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33|34|35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36|37|38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39|40|41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打到卫兵，拿到武器！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>那个守卫卖萌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>….</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打不过就跑，没什么大不了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打猪妖打到手软，怎么办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撑死胆大的，赶走这些猪妖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘿，这猪不怕人啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热水刚好，就差肉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23|24|25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26|27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28|29|30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31|32|33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34|35|36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37|38|39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|41|42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43|44|45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46|47|48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49|50|51</t>
+  </si>
+  <si>
+    <t>52|53|54</t>
+  </si>
+  <si>
+    <t>55|56|57</t>
+  </si>
+  <si>
+    <t>58|59|60</t>
+  </si>
+  <si>
+    <t>61|62|63</t>
+  </si>
+  <si>
+    <t>64|65|66</t>
+  </si>
+  <si>
+    <t>67|68|69</t>
+  </si>
+  <si>
+    <t>70|71|72</t>
+  </si>
+  <si>
+    <t>73|74|75</t>
+  </si>
+  <si>
+    <t>76|77|78</t>
+  </si>
+  <si>
+    <t>79|80|81</t>
+  </si>
+  <si>
+    <t>82|83|84</t>
+  </si>
+  <si>
+    <t>85|86|87</t>
+  </si>
+  <si>
+    <t>88|89|90</t>
+  </si>
+  <si>
+    <t>91|92|93</t>
+  </si>
+  <si>
+    <t>94|95|96</t>
+  </si>
+  <si>
+    <t>97|98|99</t>
+  </si>
+  <si>
+    <t>100|101|102</t>
+  </si>
+  <si>
+    <t>103|104|105</t>
+  </si>
+  <si>
+    <t>106|107|108</t>
+  </si>
+  <si>
+    <t>109|110|111</t>
+  </si>
+  <si>
+    <t>112|113|114</t>
+  </si>
+  <si>
+    <t>115|116|117</t>
+  </si>
+  <si>
+    <t>118|119|120</t>
+  </si>
+  <si>
+    <t>121|122|123</t>
+  </si>
+  <si>
+    <t>124|125|126</t>
+  </si>
+  <si>
+    <t>127|128|129|130|131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132|133|134|135|136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137|138|139|140|141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142|143|144|145|146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>147|148|149|150|151|152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153|154|155|156|157|158|159</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +473,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,12 +501,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,21 +849,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
@@ -687,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -727,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -737,292 +930,769 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="2">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="5">
+        <v>5</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="2">
         <v>47</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="5">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="5">
+        <v>6</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="5">
+        <v>7</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="810" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="435" yWindow="315" windowWidth="11265" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="BattleGroupConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,174 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>云栈洞-固定战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗2</t>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗3</t>
-  </si>
-  <si>
-    <t>云栈洞-固定战斗4</t>
-  </si>
-  <si>
-    <t>云栈洞-随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗2</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗3</t>
-  </si>
-  <si>
-    <t>黄风岭-固定战斗4</t>
-  </si>
-  <si>
-    <t>黄风岭-随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗2</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗3</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗4</t>
-  </si>
-  <si>
-    <t>白骨洞-固定战斗5</t>
-  </si>
-  <si>
-    <t>白骨洞-随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波月洞-固定战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波月洞-固定战斗2</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗3</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗4</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗5</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗6</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗7</t>
-  </si>
-  <si>
-    <t>波月洞-固定战斗8</t>
-  </si>
-  <si>
-    <t>波月洞-随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗2</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗3</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗4</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗5</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗6</t>
-  </si>
-  <si>
-    <t>莲花洞-固定战斗7</t>
-  </si>
-  <si>
-    <t>莲花洞-随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云洞-固定战斗1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云洞-固定战斗2</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗3</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗4</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗5</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗6</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗7</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗8</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗9</t>
-  </si>
-  <si>
-    <t>火云洞-固定战斗10</t>
-  </si>
-  <si>
-    <t>火云洞-随机战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞jjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄风岭jjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白骨洞jjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波月洞jjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莲花洞jjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云洞jjc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,13 +259,226 @@
   <si>
     <t>153|154|155|156|157|158|159</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小试牛刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒残魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止闯入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七零八落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占山占道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除鼠患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流沙陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一劫生怨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二劫离间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三劫师徒散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四劫身犯险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒捶白骨洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨暗哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼劫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落魄星辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼-云栈洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼-黄风岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼-白骨洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼-波月洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼-莲花洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼-火云洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童子军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看门小童</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻小妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭闹娃娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳牙卫兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青眼小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嬉闹小猴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫欺人小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞窟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以大欺小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金角大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银角大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角卫兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全是独角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角大本营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取兵器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角护卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大闹洞府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙护卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利爪贪狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突不断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清扫障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ⅱ</t>
+  </si>
+  <si>
+    <t>Ⅲ</t>
+  </si>
+  <si>
+    <t>Ⅳ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +525,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -501,13 +554,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,7 +909,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,8 +917,8 @@
     <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -935,14 +989,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,14 +1005,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,14 +1021,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,14 +1037,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,14 +1055,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,14 +1073,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,14 +1091,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,14 +1109,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,14 +1125,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,14 +1141,14 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,14 +1157,14 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,13 +1173,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,14 +1188,14 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,14 +1204,14 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2">
         <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,14 +1220,14 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,14 +1236,14 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2">
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,14 +1252,14 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,13 +1268,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,13 +1283,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,13 +1313,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,13 +1328,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,13 +1343,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,13 +1358,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,13 +1373,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,13 +1388,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,13 +1403,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1356,13 +1418,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,13 +1433,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,13 +1448,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,13 +1463,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,13 +1478,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,13 +1493,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,13 +1508,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,13 +1523,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,13 +1538,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,13 +1553,13 @@
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,13 +1568,13 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,13 +1583,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,13 +1598,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,13 +1613,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,13 +1628,13 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,13 +1643,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,13 +1658,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1610,14 +1672,14 @@
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>62</v>
+      <c r="C48" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="5">
         <v>5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1625,14 +1687,14 @@
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
+      <c r="C49" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E49" s="5">
         <v>5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1640,14 +1702,14 @@
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>64</v>
+      <c r="C50" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E50" s="5">
         <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1655,14 +1717,14 @@
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
+      <c r="C51" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E51" s="5">
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1670,14 +1732,14 @@
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E52" s="5">
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
@@ -1685,19 +1747,19 @@
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
+      <c r="C53" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E53" s="5">
         <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/战斗组表.xlsx
+++ b/ExcelConfig/战斗组表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,19 +459,6 @@
   <si>
     <t>清扫障碍</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ⅰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ⅱ</t>
-  </si>
-  <si>
-    <t>Ⅲ</t>
-  </si>
-  <si>
-    <t>Ⅳ</t>
   </si>
 </sst>
 </file>
@@ -909,7 +896,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48:C53"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1039,9 +1026,7 @@
       <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <v>2</v>
       </c>
@@ -1057,9 +1042,7 @@
       <c r="C8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="2">
         <v>3</v>
       </c>
@@ -1075,9 +1058,7 @@
       <c r="C9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2">
         <v>2</v>
       </c>
@@ -1093,9 +1074,7 @@
       <c r="C10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2">
         <v>3</v>
       </c>
